--- a/differences_6_0.15.xlsx
+++ b/differences_6_0.15.xlsx
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09400000000000008</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.02300000000000002</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.103</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.04399999999999998</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02500000000000002</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2110000000000001</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.02199999999999996</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02900000000000003</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.06599999999999995</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.008000000000000007</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>-0.01800000000000002</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>-0.01200000000000001</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>-0.04899999999999999</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
